--- a/Outputs/Results.xlsx
+++ b/Outputs/Results.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="n">
-        <v>44317.35424597926</v>
+        <v>44317.3542459838</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1979,6 +1979,536 @@
       </c>
       <c r="X14" t="n">
         <v>0.01464369500308057</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>44318.88634459491</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PairInConstraint</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>0.622716894977169</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.9360494450050454</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.575913715913716</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.02731818117692646</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>44318.88642148148</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PairInConstraint</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0.807648401826484</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.7391523713420787</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.6706471306471306</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.02315266852417802</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>44318.88651692129</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PairInConstraint</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>0.9954337899543378</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.8359821728893374</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.7585852665852666</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.02482072734505279</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>44318.90146739583</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PairInConstraint</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>0.6278538812785388</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.9347880928355197</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5787529507529507</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.03252029011249894</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>44318.90184952733</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PairInConstraint</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>0.8105022831050228</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.7437773292970064</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.6512299552299552</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.02467583748018951</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Results.xlsx
+++ b/Outputs/Results.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result Table" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result Table" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -100,74 +100,6 @@
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -460,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -2511,6 +2443,218 @@
         <v>0.02467583748018951</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>44321.55293721917</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PairInConstraint</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>0.6175213675213675</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.6505681818181818</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.6025470259278088</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.02174819062382515</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>44321.55385080456</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PairInConstraint</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>0.7998575498575499</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.6761363636363636</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.6951601423487546</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.02137081049330052</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/Outputs/Results.xlsx
+++ b/Outputs/Results.xlsx
@@ -392,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -2655,6 +2655,324 @@
         <v>0.02137081049330052</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>44327.50079963171</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,ObjectID</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>0.6261325703385789</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.6171428571428571</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.6146937151949086</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.01343965757651712</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>44327.50099847088</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,ObjectID</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>0.7348593228421555</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.6423570860325036</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.01465168462045375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>44327.50468817812</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,ObjectID</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>0.8068669527896996</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.660952380952381</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.6537936129105579</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.0198745299697441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/Outputs/Results.xlsx
+++ b/Outputs/Results.xlsx
@@ -392,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -2973,6 +2973,430 @@
         <v>0.0198745299697441</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>44329.70425930872</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,inherits,ObjectID,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5302813543156891</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.539047619047619</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.5236067441330599</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.0141226134412093</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>44329.70507487636</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,inherits,ObjectID,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5317119694802098</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.5276190476190477</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.5259968102073366</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.01574221691759439</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>44329.70704018058</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,inherits,ObjectID,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>0.7544110634239389</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5847619047619048</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.5965573023467761</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02429341554201177</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>44329.71761315443</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,inherits,ObjectID,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>0.9461134954697187</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.6895238095238095</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.6852813852813854</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.01520280763386198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/Outputs/Results.xlsx
+++ b/Outputs/Results.xlsx
@@ -392,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -3397,6 +3397,324 @@
         <v>0.01520280763386198</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>44333.63299795199</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,inherits,ObjectID,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>0.530758226037196</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.539047619047619</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5255160628844838</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.008864352011658486</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>44333.63300875884</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,inherits,ObjectID,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>0.7453505007153076</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.580952380952381</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6094600136705399</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.03044482387010266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>44333.63304754046</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ones</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract,ObjectsNum,inherits,ObjectID,O0,O1,O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47,O48,O49,O50,O51,O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>0.9451597520267048</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.7047619047619048</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.684771018455229</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.01983670565254515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
